--- a/mpsi2_TP_2020_2021.xlsx
+++ b/mpsi2_TP_2020_2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2380" yWindow="1120" windowWidth="19400" windowHeight="14220" activeTab="1"/>
+    <workbookView xWindow="6200" yWindow="1000" windowWidth="19400" windowHeight="14220" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="S2" sheetId="2" r:id="rId1"/>
@@ -2432,7 +2432,7 @@
   <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2483,7 +2483,9 @@
       <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2501,7 +2503,9 @@
       <c r="C3" s="2">
         <v>1</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -2519,7 +2523,9 @@
       <c r="C4" s="2">
         <v>1</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -2537,7 +2543,9 @@
       <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -2555,7 +2563,9 @@
       <c r="C6" s="2">
         <v>1</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -2573,7 +2583,9 @@
       <c r="C7" s="2">
         <v>1</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -2591,7 +2603,9 @@
       <c r="C8" s="2">
         <v>1</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -2609,7 +2623,9 @@
       <c r="C9" s="2">
         <v>1</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -2625,7 +2641,9 @@
         <v>47</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -2640,8 +2658,12 @@
       <c r="B11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -2659,7 +2681,9 @@
       <c r="C12" s="2">
         <v>1</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -2674,8 +2698,12 @@
       <c r="B13" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -2691,7 +2719,9 @@
         <v>47</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -2707,7 +2737,9 @@
         <v>47</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -2723,7 +2755,9 @@
         <v>47</v>
       </c>
       <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -2862,7 +2896,9 @@
       <c r="B24" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="2"/>
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -2878,7 +2914,9 @@
       <c r="B25" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="2"/>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -2894,7 +2932,9 @@
       <c r="B26" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="2"/>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -2910,7 +2950,9 @@
       <c r="B27" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="2"/>
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -2926,7 +2968,9 @@
       <c r="B28" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="2"/>
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -3056,7 +3100,9 @@
       <c r="B36" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="2"/>
+      <c r="C36" s="2">
+        <v>1</v>
+      </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -3072,7 +3118,9 @@
       <c r="B37" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="2"/>
+      <c r="C37" s="2">
+        <v>1</v>
+      </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -3088,7 +3136,9 @@
       <c r="B38" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C38" s="2"/>
+      <c r="C38" s="2">
+        <v>1</v>
+      </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>

--- a/mpsi2_TP_2020_2021.xlsx
+++ b/mpsi2_TP_2020_2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6200" yWindow="820" windowWidth="19400" windowHeight="14220" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="S2" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="112">
   <si>
     <t>Nom et prénom</t>
   </si>
@@ -229,9 +229,6 @@
   </si>
   <si>
     <t>Projet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AKDENIZ </t>
   </si>
   <si>
     <t xml:space="preserve">ALBRECHT </t>
@@ -2429,10 +2426,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2475,7 +2472,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>47</v>
@@ -2486,7 +2483,9 @@
       <c r="D2" s="2">
         <v>1</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -2495,7 +2494,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>47</v>
@@ -2506,7 +2505,9 @@
       <c r="D3" s="2">
         <v>1</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -2515,7 +2516,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>47</v>
@@ -2526,7 +2527,9 @@
       <c r="D4" s="2">
         <v>1</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -2535,7 +2538,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>47</v>
@@ -2546,8 +2549,12 @@
       <c r="D5" s="3">
         <v>1</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -2555,7 +2562,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>47</v>
@@ -2575,7 +2582,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>47</v>
@@ -2586,8 +2593,12 @@
       <c r="D7" s="2">
         <v>1</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -2595,7 +2606,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>47</v>
@@ -2606,8 +2617,12 @@
       <c r="D8" s="2">
         <v>1</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -2615,7 +2630,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>47</v>
@@ -2626,7 +2641,9 @@
       <c r="D9" s="2">
         <v>1</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -2635,7 +2652,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>47</v>
@@ -2644,8 +2661,12 @@
       <c r="D10" s="2">
         <v>1</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -2653,7 +2674,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>47</v>
@@ -2664,7 +2685,9 @@
       <c r="D11" s="2">
         <v>1</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -2673,7 +2696,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>47</v>
@@ -2684,7 +2707,9 @@
       <c r="D12" s="3">
         <v>1</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -2693,7 +2718,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>47</v>
@@ -2704,7 +2729,9 @@
       <c r="D13" s="3">
         <v>1</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -2713,7 +2740,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>47</v>
@@ -2722,7 +2749,9 @@
       <c r="D14" s="2">
         <v>1</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -2731,7 +2760,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>47</v>
@@ -2740,7 +2769,9 @@
       <c r="D15" s="3">
         <v>1</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -2749,7 +2780,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>47</v>
@@ -2758,7 +2789,9 @@
       <c r="D16" s="3">
         <v>1</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -2767,7 +2800,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>48</v>
@@ -2785,16 +2818,16 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="2">
-        <v>1</v>
-      </c>
+      <c r="C18" s="2"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -2802,24 +2835,30 @@
       <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>48</v>
@@ -2827,8 +2866,12 @@
       <c r="C20" s="2">
         <v>1</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -2836,8 +2879,8 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>79</v>
+      <c r="A21" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>48</v>
@@ -2845,19 +2888,21 @@
       <c r="C21" s="2">
         <v>1</v>
       </c>
-      <c r="D21" s="2">
-        <v>1</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>48</v>
@@ -2868,7 +2913,9 @@
       <c r="D22" s="3">
         <v>1</v>
       </c>
-      <c r="E22" s="3"/>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -2876,8 +2923,8 @@
       <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>85</v>
+      <c r="A23" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>48</v>
@@ -2885,13 +2932,17 @@
       <c r="C23" s="2">
         <v>1</v>
       </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
@@ -2906,7 +2957,9 @@
       <c r="D24" s="2">
         <v>1</v>
       </c>
-      <c r="E24" s="2"/>
+      <c r="E24" s="2">
+        <v>1</v>
+      </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -2915,7 +2968,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>48</v>
@@ -2926,7 +2979,9 @@
       <c r="D25" s="2">
         <v>1</v>
       </c>
-      <c r="E25" s="2"/>
+      <c r="E25" s="2">
+        <v>1</v>
+      </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -2934,7 +2989,7 @@
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>91</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -2943,19 +2998,21 @@
       <c r="C26" s="2">
         <v>1</v>
       </c>
-      <c r="D26" s="2">
-        <v>1</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>48</v>
@@ -2963,9 +3020,7 @@
       <c r="C27" s="2">
         <v>1</v>
       </c>
-      <c r="D27" s="3">
-        <v>1</v>
-      </c>
+      <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -2974,117 +3029,123 @@
       <c r="J27" s="3"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="2">
-        <v>1</v>
-      </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>97</v>
+      <c r="A29" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>99</v>
+      <c r="A30" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C30" s="2"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
+      <c r="D30" s="2">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B31" s="2" t="s">
+      <c r="A31" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2">
-        <v>1</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
+      <c r="E31" s="3">
+        <v>1</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3">
-        <v>1</v>
-      </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
+      <c r="A32" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="3" t="s">
         <v>75</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
+      <c r="C33" s="2">
+        <v>1</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="2">
-        <v>1</v>
-      </c>
+      <c r="C34" s="2"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -3095,12 +3156,14 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="2"/>
+      <c r="C35" s="2">
+        <v>1</v>
+      </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -3110,8 +3173,8 @@
       <c r="J35" s="3"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>90</v>
+      <c r="A36" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>49</v>
@@ -3119,17 +3182,17 @@
       <c r="C36" s="2">
         <v>1</v>
       </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>49</v>
@@ -3146,38 +3209,36 @@
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>95</v>
+      <c r="A38" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C38" s="2">
-        <v>1</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>98</v>
+      <c r="A39" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C39" s="2"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
@@ -3196,29 +3257,29 @@
       <c r="J40" s="2"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B42" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="2"/>
+      <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -3228,20 +3289,20 @@
       <c r="J42" s="3"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
@@ -3260,52 +3321,36 @@
       <c r="J44" s="2"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B46" s="3" t="s">
+      <c r="A46" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B46" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
     </row>
   </sheetData>
   <sortState ref="A2:J47">

--- a/mpsi2_TP_2020_2021.xlsx
+++ b/mpsi2_TP_2020_2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" activeTab="1"/>
+    <workbookView xWindow="12840" yWindow="0" windowWidth="12760" windowHeight="16000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="S2" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="111">
   <si>
     <t>Nom et prénom</t>
   </si>
@@ -334,9 +334,6 @@
   </si>
   <si>
     <t xml:space="preserve">PEREIRA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">POUPON </t>
   </si>
   <si>
     <t xml:space="preserve">RAIMONDI </t>
@@ -2426,10 +2423,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2508,7 +2505,9 @@
       <c r="E3" s="2">
         <v>1</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -2530,7 +2529,9 @@
       <c r="E4" s="2">
         <v>1</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -2574,7 +2575,9 @@
         <v>1</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -2644,7 +2647,9 @@
       <c r="E9" s="2">
         <v>1</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -2710,7 +2715,9 @@
       <c r="E12" s="3">
         <v>1</v>
       </c>
-      <c r="F12" s="3"/>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -2732,35 +2739,39 @@
       <c r="E13" s="3">
         <v>1</v>
       </c>
-      <c r="F13" s="3"/>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>47</v>
@@ -2772,7 +2783,9 @@
       <c r="E15" s="3">
         <v>1</v>
       </c>
-      <c r="F15" s="3"/>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -2780,18 +2793,16 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -2800,43 +2811,49 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="2">
-        <v>1</v>
-      </c>
+      <c r="C17" s="2"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>71</v>
+      <c r="A18" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3">
-        <v>1</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>48</v>
@@ -2850,15 +2867,17 @@
       <c r="E19" s="2">
         <v>1</v>
       </c>
-      <c r="F19" s="2"/>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>78</v>
+      <c r="A20" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>48</v>
@@ -2866,21 +2885,23 @@
       <c r="C20" s="2">
         <v>1</v>
       </c>
-      <c r="D20" s="2">
-        <v>1</v>
-      </c>
-      <c r="E20" s="2">
-        <v>1</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>48</v>
@@ -2901,8 +2922,8 @@
       <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>84</v>
+      <c r="A22" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>48</v>
@@ -2910,21 +2931,23 @@
       <c r="C22" s="2">
         <v>1</v>
       </c>
-      <c r="D22" s="3">
-        <v>1</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1</v>
-      </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>48</v>
@@ -2938,7 +2961,9 @@
       <c r="E23" s="2">
         <v>1</v>
       </c>
-      <c r="F23" s="2"/>
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -2946,7 +2971,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>48</v>
@@ -2960,15 +2985,17 @@
       <c r="E24" s="2">
         <v>1</v>
       </c>
-      <c r="F24" s="2"/>
+      <c r="F24" s="2">
+        <v>1</v>
+      </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>90</v>
+      <c r="A25" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>48</v>
@@ -2976,21 +3003,23 @@
       <c r="C25" s="2">
         <v>1</v>
       </c>
-      <c r="D25" s="2">
-        <v>1</v>
-      </c>
-      <c r="E25" s="2">
-        <v>1</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>48</v>
@@ -2998,138 +3027,146 @@
       <c r="C26" s="2">
         <v>1</v>
       </c>
-      <c r="D26" s="3">
-        <v>1</v>
-      </c>
+      <c r="D26" s="3"/>
       <c r="E26" s="3">
         <v>1</v>
       </c>
-      <c r="F26" s="3"/>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>95</v>
+      <c r="A27" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="2">
-        <v>1</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>96</v>
+      <c r="A28" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C28" s="2"/>
-      <c r="D28" s="2">
-        <v>1</v>
-      </c>
-      <c r="E28" s="2">
-        <v>1</v>
-      </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>98</v>
+      <c r="A29" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C29" s="2"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
+      <c r="D29" s="2">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B30" s="2" t="s">
+      <c r="A30" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2">
-        <v>1</v>
-      </c>
-      <c r="E30" s="2">
-        <v>1</v>
-      </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3">
-        <v>1</v>
-      </c>
-      <c r="E31" s="3">
-        <v>1</v>
-      </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
+      <c r="A31" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>74</v>
+      <c r="A32" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="2">
-        <v>1</v>
-      </c>
+      <c r="C33" s="2"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -3140,12 +3177,14 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="2"/>
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -3155,8 +3194,8 @@
       <c r="J34" s="3"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>89</v>
+      <c r="A35" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>49</v>
@@ -3164,17 +3203,17 @@
       <c r="C35" s="2">
         <v>1</v>
       </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>49</v>
@@ -3191,42 +3230,40 @@
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>94</v>
+      <c r="A37" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="2">
-        <v>1</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
-        <v>97</v>
+      <c r="A38" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C38" s="2"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>49</v>
@@ -3241,29 +3278,29 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>100</v>
+      <c r="A40" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B41" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="2"/>
+      <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -3273,20 +3310,20 @@
       <c r="J41" s="3"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
@@ -3305,52 +3342,36 @@
       <c r="J43" s="2"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B45" s="3" t="s">
+      <c r="A45" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B45" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
     </row>
   </sheetData>
   <sortState ref="A2:J47">

--- a/mpsi2_TP_2020_2021.xlsx
+++ b/mpsi2_TP_2020_2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12840" yWindow="0" windowWidth="12760" windowHeight="16000" activeTab="1"/>
+    <workbookView minimized="1" xWindow="12840" yWindow="460" windowWidth="12760" windowHeight="14560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="S2" sheetId="2" r:id="rId1"/>
@@ -2483,7 +2483,9 @@
       <c r="E2" s="2">
         <v>1</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -2693,7 +2695,9 @@
       <c r="E11" s="2">
         <v>1</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>

--- a/mpsi2_TP_2020_2021.xlsx
+++ b/mpsi2_TP_2020_2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="12840" yWindow="460" windowWidth="12760" windowHeight="14560" activeTab="1"/>
+    <workbookView xWindow="2860" yWindow="480" windowWidth="16860" windowHeight="14560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="S2" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="112">
   <si>
     <t>Nom et prénom</t>
   </si>
@@ -192,9 +192,6 @@
     <t>TP05</t>
   </si>
   <si>
-    <t>TP06</t>
-  </si>
-  <si>
     <t>TP08</t>
   </si>
   <si>
@@ -361,6 +358,12 @@
   </si>
   <si>
     <t xml:space="preserve">ZAZA AUTHIER </t>
+  </si>
+  <si>
+    <t>NGOM</t>
+  </si>
+  <si>
+    <t>TP06-7</t>
   </si>
 </sst>
 </file>
@@ -785,31 +788,31 @@
         <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -972,7 +975,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -2423,10 +2426,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2458,18 +2461,18 @@
         <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>47</v>
@@ -2486,14 +2489,16 @@
       <c r="F2" s="2">
         <v>1</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>47</v>
@@ -2510,14 +2515,18 @@
       <c r="F3" s="2">
         <v>1</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>47</v>
@@ -2534,14 +2543,16 @@
       <c r="F4" s="2">
         <v>1</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>47</v>
@@ -2558,14 +2569,18 @@
       <c r="F5" s="3">
         <v>1</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>47</v>
@@ -2580,14 +2595,18 @@
       <c r="F6" s="2">
         <v>1</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>47</v>
@@ -2604,14 +2623,18 @@
       <c r="F7" s="2">
         <v>1</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>47</v>
@@ -2628,14 +2651,18 @@
       <c r="F8" s="2">
         <v>1</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>47</v>
@@ -2652,14 +2679,18 @@
       <c r="F9" s="2">
         <v>1</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>47</v>
@@ -2674,14 +2705,18 @@
       <c r="F10" s="2">
         <v>1</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>47</v>
@@ -2698,14 +2733,16 @@
       <c r="F11" s="2">
         <v>1</v>
       </c>
-      <c r="G11" s="2"/>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>47</v>
@@ -2722,43 +2759,43 @@
       <c r="F12" s="3">
         <v>1</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-      <c r="D13" s="3">
-        <v>1</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3">
-        <v>1</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+        <v>110</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1</v>
+      </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
       <c r="D14" s="3">
         <v>1</v>
       </c>
@@ -2768,14 +2805,18 @@
       <c r="F14" s="3">
         <v>1</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>47</v>
@@ -2790,74 +2831,86 @@
       <c r="F15" s="3">
         <v>1</v>
       </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="2">
-        <v>1</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+        <v>107</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1</v>
+      </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="2"/>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
       <c r="D17" s="3"/>
-      <c r="E17" s="3">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1</v>
-      </c>
-      <c r="G17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3">
+        <v>1</v>
+      </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>72</v>
+      <c r="A18" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="2">
-        <v>1</v>
-      </c>
-      <c r="D18" s="2">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2">
-        <v>1</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>48</v>
@@ -2871,17 +2924,17 @@
       <c r="E19" s="2">
         <v>1</v>
       </c>
-      <c r="F19" s="2">
-        <v>1</v>
-      </c>
-      <c r="G19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2">
+        <v>1</v>
+      </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>82</v>
+      <c r="A20" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>48</v>
@@ -2889,23 +2942,27 @@
       <c r="C20" s="2">
         <v>1</v>
       </c>
-      <c r="D20" s="3">
-        <v>1</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1</v>
-      </c>
-      <c r="F20" s="3">
-        <v>1</v>
-      </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>48</v>
@@ -2919,15 +2976,21 @@
       <c r="E21" s="3">
         <v>1</v>
       </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
+      <c r="F21" s="3">
+        <v>1</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1</v>
+      </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>87</v>
+      <c r="A22" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>48</v>
@@ -2935,23 +2998,23 @@
       <c r="C22" s="2">
         <v>1</v>
       </c>
-      <c r="D22" s="2">
-        <v>1</v>
-      </c>
-      <c r="E22" s="2">
-        <v>1</v>
-      </c>
-      <c r="F22" s="2">
-        <v>1</v>
-      </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3">
+        <v>1</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>48</v>
@@ -2968,14 +3031,18 @@
       <c r="F23" s="2">
         <v>1</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+      <c r="G23" s="2">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1</v>
+      </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>48</v>
@@ -2992,14 +3059,18 @@
       <c r="F24" s="2">
         <v>1</v>
       </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
+      <c r="G24" s="2">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2">
+        <v>1</v>
+      </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>91</v>
+      <c r="A25" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>48</v>
@@ -3007,23 +3078,27 @@
       <c r="C25" s="2">
         <v>1</v>
       </c>
-      <c r="D25" s="3">
-        <v>1</v>
-      </c>
-      <c r="E25" s="3">
-        <v>1</v>
-      </c>
-      <c r="F25" s="3">
-        <v>1</v>
-      </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1</v>
+      </c>
+      <c r="H25" s="2">
+        <v>1</v>
+      </c>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>48</v>
@@ -3031,146 +3106,176 @@
       <c r="C26" s="2">
         <v>1</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
       <c r="E26" s="3">
         <v>1</v>
       </c>
       <c r="F26" s="3">
         <v>1</v>
       </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
+      <c r="G26" s="3">
+        <v>1</v>
+      </c>
+      <c r="H26" s="3">
+        <v>1</v>
+      </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>96</v>
+      <c r="A27" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2">
-        <v>1</v>
-      </c>
-      <c r="E27" s="2">
-        <v>1</v>
-      </c>
-      <c r="F27" s="2">
-        <v>1</v>
-      </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>98</v>
+      <c r="A28" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C28" s="2"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3">
-        <v>1</v>
-      </c>
-      <c r="F28" s="3">
-        <v>1</v>
-      </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2">
+        <v>1</v>
+      </c>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>102</v>
+      <c r="A29" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C29" s="2"/>
-      <c r="D29" s="2">
-        <v>1</v>
-      </c>
-      <c r="E29" s="2">
-        <v>1</v>
-      </c>
-      <c r="F29" s="2">
-        <v>1</v>
-      </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3">
+        <v>1</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="3">
+        <v>1</v>
+      </c>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B30" s="7" t="s">
+      <c r="A30" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3">
-        <v>1</v>
-      </c>
-      <c r="E30" s="3">
-        <v>1</v>
-      </c>
-      <c r="F30" s="3">
-        <v>1</v>
-      </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1</v>
+      </c>
+      <c r="G30" s="2">
+        <v>1</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1</v>
+      </c>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
+      <c r="A31" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
+      <c r="E31" s="3">
+        <v>1</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3">
+        <v>1</v>
+      </c>
+      <c r="H31" s="3">
+        <v>1</v>
+      </c>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>75</v>
+      <c r="A32" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="2">
-        <v>1</v>
-      </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2">
+        <v>1</v>
+      </c>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="2"/>
+      <c r="C33" s="2">
+        <v>1</v>
+      </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -3181,25 +3286,25 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="2">
-        <v>1</v>
-      </c>
+      <c r="C34" s="2"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
+      <c r="H34" s="3">
+        <v>1</v>
+      </c>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>92</v>
+      <c r="A35" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>49</v>
@@ -3207,17 +3312,17 @@
       <c r="C35" s="2">
         <v>1</v>
       </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>49</v>
@@ -3234,40 +3339,42 @@
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>97</v>
+      <c r="A37" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
+      <c r="C37" s="2">
+        <v>1</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>99</v>
+      <c r="A38" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>49</v>
@@ -3277,34 +3384,36 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
+      <c r="H39" s="2">
+        <v>1</v>
+      </c>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
-        <v>101</v>
+      <c r="A40" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C40" s="2"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B41" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="3"/>
+      <c r="C41" s="2"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -3314,24 +3423,26 @@
       <c r="J41" s="3"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B42" s="2" t="s">
+      <c r="A42" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3">
+        <v>1</v>
+      </c>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>49</v>
@@ -3346,36 +3457,52 @@
       <c r="J43" s="2"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B44" s="3" t="s">
+      <c r="A44" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B45" s="8" t="s">
+      <c r="A45" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
     </row>
   </sheetData>
   <sortState ref="A2:J47">

--- a/mpsi2_TP_2020_2021.xlsx
+++ b/mpsi2_TP_2020_2021.xlsx
@@ -2429,7 +2429,7 @@
   <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2493,7 +2493,9 @@
         <v>1</v>
       </c>
       <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="I2" s="2">
+        <v>1</v>
+      </c>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -2521,7 +2523,9 @@
       <c r="H3" s="2">
         <v>1</v>
       </c>
-      <c r="I3" s="2"/>
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -2547,7 +2551,9 @@
         <v>1</v>
       </c>
       <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -2575,7 +2581,9 @@
       <c r="H5" s="3">
         <v>1</v>
       </c>
-      <c r="I5" s="3"/>
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -2629,7 +2637,9 @@
       <c r="H7" s="2">
         <v>1</v>
       </c>
-      <c r="I7" s="2"/>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -2657,7 +2667,9 @@
       <c r="H8" s="2">
         <v>1</v>
       </c>
-      <c r="I8" s="2"/>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -2685,7 +2697,9 @@
       <c r="H9" s="2">
         <v>1</v>
       </c>
-      <c r="I9" s="2"/>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -2711,7 +2725,9 @@
       <c r="H10" s="2">
         <v>1</v>
       </c>
-      <c r="I10" s="2"/>
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -2737,7 +2753,9 @@
         <v>1</v>
       </c>
       <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="I11" s="2">
+        <v>1</v>
+      </c>
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -2765,7 +2783,9 @@
       <c r="H12" s="3">
         <v>1</v>
       </c>
-      <c r="I12" s="3"/>
+      <c r="I12" s="3">
+        <v>1</v>
+      </c>
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -2783,7 +2803,9 @@
       <c r="H13" s="3">
         <v>1</v>
       </c>
-      <c r="I13" s="3"/>
+      <c r="I13" s="3">
+        <v>1</v>
+      </c>
       <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -2811,7 +2833,9 @@
       <c r="H14" s="3">
         <v>1</v>
       </c>
-      <c r="I14" s="3"/>
+      <c r="I14" s="3">
+        <v>1</v>
+      </c>
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -2837,7 +2861,9 @@
       <c r="H15" s="3">
         <v>1</v>
       </c>
-      <c r="I15" s="3"/>
+      <c r="I15" s="3">
+        <v>1</v>
+      </c>
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -2861,7 +2887,9 @@
         <v>1</v>
       </c>
       <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="I16" s="3">
+        <v>1</v>
+      </c>
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -2905,7 +2933,9 @@
       <c r="H18" s="3">
         <v>1</v>
       </c>
-      <c r="I18" s="3"/>
+      <c r="I18" s="3">
+        <v>1</v>
+      </c>
       <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -2929,7 +2959,9 @@
         <v>1</v>
       </c>
       <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
+      <c r="I19" s="2">
+        <v>1</v>
+      </c>
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -2957,7 +2989,9 @@
       <c r="H20" s="2">
         <v>1</v>
       </c>
-      <c r="I20" s="2"/>
+      <c r="I20" s="2">
+        <v>1</v>
+      </c>
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -2985,7 +3019,9 @@
       <c r="H21" s="3">
         <v>1</v>
       </c>
-      <c r="I21" s="3"/>
+      <c r="I21" s="3">
+        <v>1</v>
+      </c>
       <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -3009,7 +3045,9 @@
         <v>1</v>
       </c>
       <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
+      <c r="I22" s="3">
+        <v>1</v>
+      </c>
       <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -3037,7 +3075,9 @@
       <c r="H23" s="2">
         <v>1</v>
       </c>
-      <c r="I23" s="2"/>
+      <c r="I23" s="2">
+        <v>1</v>
+      </c>
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -3065,7 +3105,9 @@
       <c r="H24" s="2">
         <v>1</v>
       </c>
-      <c r="I24" s="2"/>
+      <c r="I24" s="2">
+        <v>1</v>
+      </c>
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -3093,7 +3135,9 @@
       <c r="H25" s="2">
         <v>1</v>
       </c>
-      <c r="I25" s="2"/>
+      <c r="I25" s="2">
+        <v>1</v>
+      </c>
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -3121,7 +3165,9 @@
       <c r="H26" s="3">
         <v>1</v>
       </c>
-      <c r="I26" s="3"/>
+      <c r="I26" s="3">
+        <v>1</v>
+      </c>
       <c r="J26" s="3"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -3145,7 +3191,9 @@
         <v>1</v>
       </c>
       <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
+      <c r="I27" s="3">
+        <v>1</v>
+      </c>
       <c r="J27" s="3"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -3171,7 +3219,9 @@
       <c r="H28" s="2">
         <v>1</v>
       </c>
-      <c r="I28" s="2"/>
+      <c r="I28" s="2">
+        <v>1</v>
+      </c>
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -3193,7 +3243,9 @@
         <v>1</v>
       </c>
       <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
+      <c r="I29" s="3">
+        <v>1</v>
+      </c>
       <c r="J29" s="3"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -3219,7 +3271,9 @@
       <c r="H30" s="2">
         <v>1</v>
       </c>
-      <c r="I30" s="2"/>
+      <c r="I30" s="2">
+        <v>1</v>
+      </c>
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -3245,7 +3299,9 @@
       <c r="H31" s="3">
         <v>1</v>
       </c>
-      <c r="I31" s="3"/>
+      <c r="I31" s="3">
+        <v>1</v>
+      </c>
       <c r="J31" s="3"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">

--- a/mpsi2_TP_2020_2021.xlsx
+++ b/mpsi2_TP_2020_2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2860" yWindow="480" windowWidth="16860" windowHeight="14560" activeTab="1"/>
+    <workbookView xWindow="800" yWindow="460" windowWidth="23080" windowHeight="14560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="S2" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="113">
   <si>
     <t>Nom et prénom</t>
   </si>
@@ -231,9 +231,6 @@
     <t xml:space="preserve">ALBRECHT </t>
   </si>
   <si>
-    <t xml:space="preserve">ATRAOUI </t>
-  </si>
-  <si>
     <t xml:space="preserve">AUBUT </t>
   </si>
   <si>
@@ -306,9 +303,6 @@
     <t xml:space="preserve">JUSTIN </t>
   </si>
   <si>
-    <t xml:space="preserve">KOUMBA BOUNDA </t>
-  </si>
-  <si>
     <t xml:space="preserve">LAURENT </t>
   </si>
   <si>
@@ -364,6 +358,15 @@
   </si>
   <si>
     <t>TP06-7</t>
+  </si>
+  <si>
+    <t>Groupe TP S1</t>
+  </si>
+  <si>
+    <t>Groupe TP S2</t>
+  </si>
+  <si>
+    <t>SALICCIA</t>
   </si>
 </sst>
 </file>
@@ -438,16 +441,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2426,59 +2430,71 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34.33203125" customWidth="1"/>
-    <col min="2" max="6" width="10.83203125" customWidth="1"/>
+    <col min="2" max="7" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="I1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="2">
-        <v>1</v>
+      <c r="C2" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -2492,21 +2508,32 @@
       <c r="G2" s="2">
         <v>1</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2">
-        <v>1</v>
-      </c>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="2">
-        <v>1</v>
+      <c r="C3" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -2523,20 +2550,29 @@
       <c r="H3" s="2">
         <v>1</v>
       </c>
-      <c r="I3" s="2">
-        <v>1</v>
-      </c>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I3" s="2"/>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="2">
-        <v>1</v>
+      <c r="C4" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -2544,966 +2580,1332 @@
       <c r="E4" s="2">
         <v>1</v>
       </c>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="2">
         <v>1</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
       <c r="I4" s="2">
         <v>1</v>
       </c>
       <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>72</v>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2">
+        <v>1</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1</v>
-      </c>
-      <c r="H5" s="3">
-        <v>1</v>
-      </c>
-      <c r="I5" s="3">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1</v>
+      </c>
+      <c r="L7" s="3">
+        <v>1</v>
+      </c>
+      <c r="M7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1</v>
+      </c>
+      <c r="M9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3">
+        <v>1</v>
+      </c>
+      <c r="K10" s="3">
+        <v>1</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1</v>
+      </c>
+      <c r="M10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3">
+        <v>1</v>
+      </c>
+      <c r="J11" s="3">
+        <v>1</v>
+      </c>
+      <c r="K11" s="3">
+        <v>1</v>
+      </c>
+      <c r="L11" s="3">
+        <v>1</v>
+      </c>
+      <c r="M11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2">
-        <v>1</v>
-      </c>
-      <c r="H6" s="2">
-        <v>1</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1</v>
-      </c>
-      <c r="I7" s="2">
-        <v>1</v>
-      </c>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1</v>
-      </c>
-      <c r="G8" s="2">
-        <v>1</v>
-      </c>
-      <c r="H8" s="2">
-        <v>1</v>
-      </c>
-      <c r="I8" s="2">
-        <v>1</v>
-      </c>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1</v>
-      </c>
-      <c r="G9" s="2">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2">
-        <v>1</v>
-      </c>
-      <c r="I9" s="2">
-        <v>1</v>
-      </c>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2">
-        <v>1</v>
-      </c>
-      <c r="G10" s="2">
-        <v>1</v>
-      </c>
-      <c r="H10" s="2">
-        <v>1</v>
-      </c>
-      <c r="I10" s="2">
-        <v>1</v>
-      </c>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1</v>
-      </c>
-      <c r="F11" s="2">
-        <v>1</v>
-      </c>
-      <c r="G11" s="2">
-        <v>1</v>
-      </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2">
-        <v>1</v>
-      </c>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>85</v>
-      </c>
       <c r="B12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="3">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1</v>
-      </c>
-      <c r="H12" s="3">
-        <v>1</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
       <c r="I12" s="3">
         <v>1</v>
       </c>
       <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K12" s="3"/>
+      <c r="L12" s="3">
+        <v>1</v>
+      </c>
+      <c r="M12" s="3">
+        <v>1</v>
+      </c>
+      <c r="N12" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="3"/>
+        <v>98</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="2"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="3">
-        <v>1</v>
-      </c>
-      <c r="H13" s="3">
-        <v>1</v>
-      </c>
-      <c r="I13" s="3">
-        <v>1</v>
-      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K13" s="3"/>
+      <c r="L13" s="3">
+        <v>1</v>
+      </c>
+      <c r="M13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3">
+        <v>1</v>
+      </c>
+      <c r="M14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3">
+        <v>1</v>
+      </c>
+      <c r="M16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1</v>
+      </c>
+      <c r="L17" s="2">
+        <v>1</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1</v>
+      </c>
+      <c r="I18" s="3">
+        <v>1</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1</v>
+      </c>
+      <c r="K18" s="3">
+        <v>1</v>
+      </c>
+      <c r="L18" s="3">
+        <v>1</v>
+      </c>
+      <c r="M18" s="3">
+        <v>1</v>
+      </c>
+      <c r="N18" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1</v>
+      </c>
+      <c r="L19" s="2">
+        <v>1</v>
+      </c>
+      <c r="M19" s="2">
+        <v>1</v>
+      </c>
+      <c r="N19" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3">
+        <v>1</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1</v>
+      </c>
+      <c r="L20" s="3">
+        <v>1</v>
+      </c>
+      <c r="M20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3">
+        <v>1</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1</v>
+      </c>
+      <c r="K21" s="3">
+        <v>1</v>
+      </c>
+      <c r="L21" s="3">
+        <v>1</v>
+      </c>
+      <c r="M21" s="3">
+        <v>1</v>
+      </c>
+      <c r="N21" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1</v>
+      </c>
+      <c r="K22" s="2">
+        <v>1</v>
+      </c>
+      <c r="L22" s="2">
+        <v>1</v>
+      </c>
+      <c r="M22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1</v>
+      </c>
+      <c r="H23" s="3">
+        <v>1</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1</v>
+      </c>
+      <c r="K23" s="3">
+        <v>1</v>
+      </c>
+      <c r="L23" s="3">
+        <v>1</v>
+      </c>
+      <c r="M23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2">
+        <v>1</v>
+      </c>
+      <c r="I24" s="2">
+        <v>1</v>
+      </c>
+      <c r="J24" s="2">
+        <v>1</v>
+      </c>
+      <c r="K24" s="2">
+        <v>1</v>
+      </c>
+      <c r="L24" s="2">
+        <v>1</v>
+      </c>
+      <c r="M24" s="2">
+        <v>1</v>
+      </c>
+      <c r="N24" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1</v>
-      </c>
-      <c r="D14" s="3">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1</v>
-      </c>
-      <c r="G14" s="3">
-        <v>1</v>
-      </c>
-      <c r="H14" s="3">
-        <v>1</v>
-      </c>
-      <c r="I14" s="3">
-        <v>1</v>
-      </c>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="B25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3">
+        <v>1</v>
+      </c>
+      <c r="H25" s="3">
+        <v>1</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3">
+        <v>1</v>
+      </c>
+      <c r="K25" s="3">
+        <v>1</v>
+      </c>
+      <c r="L25" s="3">
+        <v>1</v>
+      </c>
+      <c r="M25" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1</v>
+      </c>
+      <c r="H26" s="2">
+        <v>1</v>
+      </c>
+      <c r="I26" s="2">
+        <v>1</v>
+      </c>
+      <c r="J26" s="2">
+        <v>1</v>
+      </c>
+      <c r="K26" s="2">
+        <v>1</v>
+      </c>
+      <c r="L26" s="2">
+        <v>1</v>
+      </c>
+      <c r="M26" s="2">
+        <v>1</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2">
+        <v>1</v>
+      </c>
+      <c r="H27" s="2">
+        <v>1</v>
+      </c>
+      <c r="I27" s="2">
+        <v>1</v>
+      </c>
+      <c r="J27" s="2">
+        <v>1</v>
+      </c>
+      <c r="K27" s="2">
+        <v>1</v>
+      </c>
+      <c r="L27" s="2">
+        <v>1</v>
+      </c>
+      <c r="M27" s="2">
+        <v>1</v>
+      </c>
+      <c r="N27" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2">
+        <v>1</v>
+      </c>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2">
+        <v>1</v>
+      </c>
+      <c r="M29" s="2">
+        <v>1</v>
+      </c>
+      <c r="N29" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3">
-        <v>1</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1</v>
-      </c>
-      <c r="G15" s="3">
-        <v>1</v>
-      </c>
-      <c r="H15" s="3">
-        <v>1</v>
-      </c>
-      <c r="I15" s="3">
-        <v>1</v>
-      </c>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3">
-        <v>1</v>
-      </c>
-      <c r="G16" s="3">
-        <v>1</v>
-      </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3">
-        <v>1</v>
-      </c>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3">
-        <v>1</v>
-      </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="B30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2">
+        <v>1</v>
+      </c>
+      <c r="M30" s="2">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3">
+        <v>1</v>
+      </c>
+      <c r="M31" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2">
+        <v>1</v>
+      </c>
+      <c r="F32" s="2">
+        <v>1</v>
+      </c>
+      <c r="G32" s="2">
+        <v>1</v>
+      </c>
+      <c r="H32" s="2">
+        <v>1</v>
+      </c>
+      <c r="I32" s="2">
+        <v>1</v>
+      </c>
+      <c r="J32" s="2">
+        <v>1</v>
+      </c>
+      <c r="K32" s="2">
+        <v>1</v>
+      </c>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1</v>
+      </c>
+      <c r="F33" s="2">
+        <v>1</v>
+      </c>
+      <c r="G33" s="2">
+        <v>1</v>
+      </c>
+      <c r="H33" s="2">
+        <v>1</v>
+      </c>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2">
+        <v>1</v>
+      </c>
+      <c r="K33" s="2">
+        <v>1</v>
+      </c>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3">
-        <v>1</v>
-      </c>
-      <c r="F18" s="3">
-        <v>1</v>
-      </c>
-      <c r="G18" s="3">
-        <v>1</v>
-      </c>
-      <c r="H18" s="3">
-        <v>1</v>
-      </c>
-      <c r="I18" s="3">
-        <v>1</v>
-      </c>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2">
-        <v>1</v>
-      </c>
-      <c r="E19" s="2">
-        <v>1</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2">
-        <v>1</v>
-      </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2">
-        <v>1</v>
-      </c>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="2">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2">
-        <v>1</v>
-      </c>
-      <c r="E20" s="2">
-        <v>1</v>
-      </c>
-      <c r="F20" s="2">
-        <v>1</v>
-      </c>
-      <c r="G20" s="2">
-        <v>1</v>
-      </c>
-      <c r="H20" s="2">
-        <v>1</v>
-      </c>
-      <c r="I20" s="2">
-        <v>1</v>
-      </c>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="2">
-        <v>1</v>
-      </c>
-      <c r="D21" s="3">
-        <v>1</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1</v>
-      </c>
-      <c r="F21" s="3">
-        <v>1</v>
-      </c>
-      <c r="G21" s="3">
-        <v>1</v>
-      </c>
-      <c r="H21" s="3">
-        <v>1</v>
-      </c>
-      <c r="I21" s="3">
-        <v>1</v>
-      </c>
-      <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="2">
-        <v>1</v>
-      </c>
-      <c r="D22" s="3">
-        <v>1</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1</v>
-      </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3">
-        <v>1</v>
-      </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3">
-        <v>1</v>
-      </c>
-      <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+      <c r="B34" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2">
+        <v>1</v>
+      </c>
+      <c r="F34" s="2">
+        <v>1</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2">
+        <v>1</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2">
+        <v>1</v>
+      </c>
+      <c r="K34" s="2">
+        <v>1</v>
+      </c>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3">
+        <v>1</v>
+      </c>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3">
+        <v>1</v>
+      </c>
+      <c r="K35" s="3">
+        <v>1</v>
+      </c>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2">
+        <v>1</v>
+      </c>
+      <c r="F36" s="2">
+        <v>1</v>
+      </c>
+      <c r="G36" s="2">
+        <v>1</v>
+      </c>
+      <c r="H36" s="2">
+        <v>1</v>
+      </c>
+      <c r="I36" s="2">
+        <v>1</v>
+      </c>
+      <c r="J36" s="2">
+        <v>1</v>
+      </c>
+      <c r="K36" s="2">
+        <v>1</v>
+      </c>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="2">
-        <v>1</v>
-      </c>
-      <c r="D23" s="2">
-        <v>1</v>
-      </c>
-      <c r="E23" s="2">
-        <v>1</v>
-      </c>
-      <c r="F23" s="2">
-        <v>1</v>
-      </c>
-      <c r="G23" s="2">
-        <v>1</v>
-      </c>
-      <c r="H23" s="2">
-        <v>1</v>
-      </c>
-      <c r="I23" s="2">
-        <v>1</v>
-      </c>
-      <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="2">
-        <v>1</v>
-      </c>
-      <c r="D24" s="2">
-        <v>1</v>
-      </c>
-      <c r="E24" s="2">
-        <v>1</v>
-      </c>
-      <c r="F24" s="2">
-        <v>1</v>
-      </c>
-      <c r="G24" s="2">
-        <v>1</v>
-      </c>
-      <c r="H24" s="2">
-        <v>1</v>
-      </c>
-      <c r="I24" s="2">
-        <v>1</v>
-      </c>
-      <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="2">
-        <v>1</v>
-      </c>
-      <c r="D25" s="2">
-        <v>1</v>
-      </c>
-      <c r="E25" s="2">
-        <v>1</v>
-      </c>
-      <c r="F25" s="2">
-        <v>1</v>
-      </c>
-      <c r="G25" s="2">
-        <v>1</v>
-      </c>
-      <c r="H25" s="2">
-        <v>1</v>
-      </c>
-      <c r="I25" s="2">
-        <v>1</v>
-      </c>
-      <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
+      <c r="B37" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2">
+        <v>1</v>
+      </c>
+      <c r="F37" s="2">
+        <v>1</v>
+      </c>
+      <c r="G37" s="2">
+        <v>1</v>
+      </c>
+      <c r="H37" s="2">
+        <v>1</v>
+      </c>
+      <c r="I37" s="2">
+        <v>1</v>
+      </c>
+      <c r="J37" s="2">
+        <v>1</v>
+      </c>
+      <c r="K37" s="2">
+        <v>1</v>
+      </c>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2">
+        <v>1</v>
+      </c>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="2">
-        <v>1</v>
-      </c>
-      <c r="D26" s="3">
-        <v>1</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1</v>
-      </c>
-      <c r="F26" s="3">
-        <v>1</v>
-      </c>
-      <c r="G26" s="3">
-        <v>1</v>
-      </c>
-      <c r="H26" s="3">
-        <v>1</v>
-      </c>
-      <c r="I26" s="3">
-        <v>1</v>
-      </c>
-      <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="2">
-        <v>1</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3">
-        <v>1</v>
-      </c>
-      <c r="F27" s="3">
-        <v>1</v>
-      </c>
-      <c r="G27" s="3">
-        <v>1</v>
-      </c>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3">
-        <v>1</v>
-      </c>
-      <c r="J27" s="3"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2">
-        <v>1</v>
-      </c>
-      <c r="E28" s="2">
-        <v>1</v>
-      </c>
-      <c r="F28" s="2">
-        <v>1</v>
-      </c>
-      <c r="G28" s="2">
-        <v>1</v>
-      </c>
-      <c r="H28" s="2">
-        <v>1</v>
-      </c>
-      <c r="I28" s="2">
-        <v>1</v>
-      </c>
-      <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3">
-        <v>1</v>
-      </c>
-      <c r="F29" s="3">
-        <v>1</v>
-      </c>
-      <c r="G29" s="3">
-        <v>1</v>
-      </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3">
-        <v>1</v>
-      </c>
-      <c r="J29" s="3"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2">
-        <v>1</v>
-      </c>
-      <c r="E30" s="2">
-        <v>1</v>
-      </c>
-      <c r="F30" s="2">
-        <v>1</v>
-      </c>
-      <c r="G30" s="2">
-        <v>1</v>
-      </c>
-      <c r="H30" s="2">
-        <v>1</v>
-      </c>
-      <c r="I30" s="2">
-        <v>1</v>
-      </c>
-      <c r="J30" s="2"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3">
-        <v>1</v>
-      </c>
-      <c r="E31" s="3">
-        <v>1</v>
-      </c>
-      <c r="F31" s="3">
-        <v>1</v>
-      </c>
-      <c r="G31" s="3">
-        <v>1</v>
-      </c>
-      <c r="H31" s="3">
-        <v>1</v>
-      </c>
-      <c r="I31" s="3">
-        <v>1</v>
-      </c>
-      <c r="J31" s="3"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2">
-        <v>1</v>
-      </c>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" s="2">
-        <v>1</v>
-      </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3">
-        <v>1</v>
-      </c>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35" s="2">
-        <v>1</v>
-      </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C36" s="2">
-        <v>1</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" s="2">
-        <v>1</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2">
-        <v>1</v>
-      </c>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="B40" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
+      <c r="C40" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1</v>
+      </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
-        <v>100</v>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C41" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
+        <v>94</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" s="2"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
-      <c r="H42" s="3">
-        <v>1</v>
-      </c>
+      <c r="H42" s="3"/>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C43" s="2"/>
+      <c r="C43" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -3511,15 +3913,20 @@
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C44" s="2"/>
+      <c r="C44" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -3527,42 +3934,40 @@
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="6" t="s">
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B46" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45" s="5"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8">
+        <v>1</v>
+      </c>
+      <c r="I45" s="8">
+        <v>1</v>
+      </c>
+      <c r="J45" s="8">
+        <v>1</v>
+      </c>
+      <c r="K45" s="8">
+        <v>1</v>
+      </c>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
     </row>
   </sheetData>
-  <sortState ref="A2:J47">
-    <sortCondition ref="B2:B47"/>
+  <sortState ref="A2:M45">
+    <sortCondition ref="C2:C45"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mpsi2_TP_2020_2021.xlsx
+++ b/mpsi2_TP_2020_2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="800" yWindow="460" windowWidth="23080" windowHeight="14560" activeTab="1"/>
+    <workbookView xWindow="2520" yWindow="460" windowWidth="23080" windowHeight="14480" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="S2" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="113">
   <si>
     <t>Nom et prénom</t>
   </si>
@@ -441,7 +441,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -450,8 +450,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2430,10 +2431,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N45"/>
+  <dimension ref="A1:O45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2442,7 +2446,7 @@
     <col min="2" max="7" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2485,8 +2489,11 @@
       <c r="N1" s="4" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O1" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>66</v>
       </c>
@@ -2525,7 +2532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>68</v>
       </c>
@@ -2564,7 +2571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>74</v>
       </c>
@@ -2598,144 +2605,138 @@
       <c r="M4" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="N4" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3">
+        <v>1</v>
+      </c>
+      <c r="M5" s="3">
+        <v>1</v>
+      </c>
+      <c r="N5" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1</v>
-      </c>
-      <c r="I5" s="2">
-        <v>1</v>
-      </c>
-      <c r="J5" s="2">
-        <v>1</v>
-      </c>
-      <c r="K5" s="2">
-        <v>1</v>
-      </c>
-      <c r="L5" s="2">
-        <v>1</v>
-      </c>
-      <c r="M5" s="2">
-        <v>1</v>
-      </c>
-      <c r="N5" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1</v>
+      </c>
+      <c r="N6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2">
-        <v>1</v>
-      </c>
-      <c r="H6" s="2">
-        <v>1</v>
-      </c>
-      <c r="I6" s="2">
-        <v>1</v>
-      </c>
-      <c r="J6" s="2">
-        <v>1</v>
-      </c>
-      <c r="K6" s="2">
-        <v>1</v>
-      </c>
-      <c r="L6" s="2">
-        <v>1</v>
-      </c>
-      <c r="M6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="B7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3">
-        <v>1</v>
-      </c>
-      <c r="H7" s="3">
-        <v>1</v>
-      </c>
-      <c r="I7" s="3">
-        <v>1</v>
-      </c>
-      <c r="J7" s="3">
-        <v>1</v>
-      </c>
-      <c r="K7" s="3">
-        <v>1</v>
-      </c>
-      <c r="L7" s="3">
-        <v>1</v>
-      </c>
-      <c r="M7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="3"/>
+      <c r="B8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
       <c r="E8" s="3">
         <v>1</v>
       </c>
@@ -2764,7 +2765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>89</v>
       </c>
@@ -2804,8 +2805,11 @@
       <c r="M9" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>95</v>
       </c>
@@ -2839,92 +2843,96 @@
       <c r="M10" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1</v>
-      </c>
-      <c r="H11" s="3">
-        <v>1</v>
-      </c>
-      <c r="I11" s="3">
-        <v>1</v>
-      </c>
-      <c r="J11" s="3">
-        <v>1</v>
-      </c>
-      <c r="K11" s="3">
-        <v>1</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
       <c r="L11" s="3">
         <v>1</v>
       </c>
       <c r="M11" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N11" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1</v>
+      </c>
       <c r="I12" s="3">
         <v>1</v>
       </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
+      <c r="J12" s="3">
+        <v>1</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1</v>
+      </c>
       <c r="L12" s="3">
         <v>1</v>
       </c>
       <c r="M12" s="3">
         <v>1</v>
       </c>
-      <c r="N12" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="10"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="I13" s="3">
+        <v>1</v>
+      </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3">
@@ -2933,10 +2941,13 @@
       <c r="M13" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>49</v>
@@ -2949,21 +2960,20 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="3">
-        <v>1</v>
-      </c>
+      <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
-      <c r="L14" s="3">
-        <v>1</v>
-      </c>
+      <c r="L14" s="3"/>
       <c r="M14" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>49</v>
@@ -2979,7 +2989,9 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="L15" s="3">
+        <v>1</v>
+      </c>
       <c r="M15" s="3">
         <v>1</v>
       </c>
@@ -2987,32 +2999,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>47</v>
       </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
+      <c r="I16" s="3">
+        <v>1</v>
+      </c>
+      <c r="J16" s="3">
+        <v>1</v>
+      </c>
+      <c r="K16" s="3">
+        <v>1</v>
+      </c>
       <c r="L16" s="3">
         <v>1</v>
       </c>
       <c r="M16" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N16" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>67</v>
       </c>
@@ -3052,175 +3081,194 @@
       <c r="M17" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N17" s="7">
+        <v>1</v>
+      </c>
+      <c r="O17" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1</v>
+      </c>
+      <c r="I18" s="3">
+        <v>1</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1</v>
+      </c>
+      <c r="K18" s="3">
+        <v>1</v>
+      </c>
+      <c r="L18" s="3">
+        <v>1</v>
+      </c>
+      <c r="M18" s="3">
+        <v>1</v>
+      </c>
+      <c r="N18" s="8">
+        <v>1</v>
+      </c>
+      <c r="O18" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="2">
-        <v>1</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1</v>
-      </c>
-      <c r="F18" s="3">
-        <v>1</v>
-      </c>
-      <c r="G18" s="3">
-        <v>1</v>
-      </c>
-      <c r="H18" s="3">
-        <v>1</v>
-      </c>
-      <c r="I18" s="3">
-        <v>1</v>
-      </c>
-      <c r="J18" s="3">
-        <v>1</v>
-      </c>
-      <c r="K18" s="3">
-        <v>1</v>
-      </c>
-      <c r="L18" s="3">
-        <v>1</v>
-      </c>
-      <c r="M18" s="3">
-        <v>1</v>
-      </c>
-      <c r="N18" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="B19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1</v>
+      </c>
+      <c r="H19" s="3">
+        <v>1</v>
+      </c>
+      <c r="I19" s="3">
+        <v>1</v>
+      </c>
+      <c r="J19" s="3">
+        <v>1</v>
+      </c>
+      <c r="K19" s="3">
+        <v>1</v>
+      </c>
+      <c r="L19" s="3">
+        <v>1</v>
+      </c>
+      <c r="M19" s="3">
+        <v>1</v>
+      </c>
+      <c r="N19" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1</v>
+      </c>
+      <c r="J20" s="2">
+        <v>1</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1</v>
+      </c>
+      <c r="L20" s="2">
+        <v>1</v>
+      </c>
+      <c r="M20" s="2">
+        <v>1</v>
+      </c>
+      <c r="N20" s="7">
+        <v>1</v>
+      </c>
+      <c r="O20" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="2">
-        <v>1</v>
-      </c>
-      <c r="E19" s="2">
-        <v>1</v>
-      </c>
-      <c r="F19" s="2">
-        <v>1</v>
-      </c>
-      <c r="G19" s="2">
-        <v>1</v>
-      </c>
-      <c r="H19" s="2">
-        <v>1</v>
-      </c>
-      <c r="I19" s="2">
-        <v>1</v>
-      </c>
-      <c r="J19" s="2">
-        <v>1</v>
-      </c>
-      <c r="K19" s="2">
-        <v>1</v>
-      </c>
-      <c r="L19" s="2">
-        <v>1</v>
-      </c>
-      <c r="M19" s="2">
-        <v>1</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3">
-        <v>1</v>
-      </c>
-      <c r="F20" s="3">
-        <v>1</v>
-      </c>
-      <c r="G20" s="3">
-        <v>1</v>
-      </c>
-      <c r="H20" s="3">
-        <v>1</v>
-      </c>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3">
-        <v>1</v>
-      </c>
-      <c r="K20" s="3">
-        <v>1</v>
-      </c>
-      <c r="L20" s="3">
-        <v>1</v>
-      </c>
-      <c r="M20" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="B21" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3">
-        <v>1</v>
-      </c>
-      <c r="G21" s="3">
-        <v>1</v>
-      </c>
-      <c r="H21" s="3">
-        <v>1</v>
-      </c>
-      <c r="I21" s="3">
-        <v>1</v>
-      </c>
-      <c r="J21" s="3">
-        <v>1</v>
-      </c>
-      <c r="K21" s="3">
-        <v>1</v>
-      </c>
-      <c r="L21" s="3">
-        <v>1</v>
-      </c>
-      <c r="M21" s="3">
-        <v>1</v>
-      </c>
-      <c r="N21" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>76</v>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1</v>
+      </c>
+      <c r="J21" s="2">
+        <v>1</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1</v>
+      </c>
+      <c r="L21" s="2">
+        <v>1</v>
+      </c>
+      <c r="M21" s="2">
+        <v>1</v>
+      </c>
+      <c r="N21" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>48</v>
@@ -3231,40 +3279,46 @@
       <c r="D22" s="2">
         <v>1</v>
       </c>
-      <c r="E22" s="2">
-        <v>1</v>
-      </c>
-      <c r="F22" s="2">
-        <v>1</v>
-      </c>
-      <c r="G22" s="2">
-        <v>1</v>
-      </c>
-      <c r="H22" s="2">
-        <v>1</v>
-      </c>
-      <c r="I22" s="2">
-        <v>1</v>
-      </c>
-      <c r="J22" s="2">
-        <v>1</v>
-      </c>
-      <c r="K22" s="2">
-        <v>1</v>
-      </c>
-      <c r="L22" s="2">
-        <v>1</v>
-      </c>
-      <c r="M22" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1</v>
+      </c>
+      <c r="I22" s="3">
+        <v>1</v>
+      </c>
+      <c r="J22" s="3">
+        <v>1</v>
+      </c>
+      <c r="K22" s="3">
+        <v>1</v>
+      </c>
+      <c r="L22" s="3">
+        <v>1</v>
+      </c>
+      <c r="M22" s="3">
+        <v>1</v>
+      </c>
+      <c r="N22" s="8">
+        <v>1</v>
+      </c>
+      <c r="O22" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>48</v>
@@ -3272,35 +3326,22 @@
       <c r="D23" s="2">
         <v>1</v>
       </c>
-      <c r="E23" s="3">
-        <v>1</v>
-      </c>
-      <c r="F23" s="3">
-        <v>1</v>
-      </c>
-      <c r="G23" s="3">
-        <v>1</v>
-      </c>
-      <c r="H23" s="3">
-        <v>1</v>
-      </c>
-      <c r="I23" s="3">
-        <v>1</v>
-      </c>
-      <c r="J23" s="3">
-        <v>1</v>
-      </c>
-      <c r="K23" s="3">
-        <v>1</v>
-      </c>
-      <c r="L23" s="3">
-        <v>1</v>
-      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
       <c r="M23" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N23" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>88</v>
       </c>
@@ -3343,8 +3384,11 @@
       <c r="N24" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>92</v>
       </c>
@@ -3381,7 +3425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>93</v>
       </c>
@@ -3422,77 +3466,91 @@
       <c r="N26" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2">
+        <v>1</v>
+      </c>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2">
+        <v>1</v>
+      </c>
+      <c r="M27" s="2">
+        <v>1</v>
+      </c>
+      <c r="N27" s="7">
+        <v>1</v>
+      </c>
+      <c r="O27" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2">
-        <v>1</v>
-      </c>
-      <c r="F27" s="2">
-        <v>1</v>
-      </c>
-      <c r="G27" s="2">
-        <v>1</v>
-      </c>
-      <c r="H27" s="2">
-        <v>1</v>
-      </c>
-      <c r="I27" s="2">
-        <v>1</v>
-      </c>
-      <c r="J27" s="2">
-        <v>1</v>
-      </c>
-      <c r="K27" s="2">
-        <v>1</v>
-      </c>
-      <c r="L27" s="2">
-        <v>1</v>
-      </c>
-      <c r="M27" s="2">
-        <v>1</v>
-      </c>
-      <c r="N27" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="B28" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="2">
-        <v>1</v>
-      </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D28" s="2"/>
+      <c r="E28" s="2">
+        <v>1</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2">
+        <v>1</v>
+      </c>
+      <c r="I28" s="2">
+        <v>1</v>
+      </c>
+      <c r="J28" s="2">
+        <v>1</v>
+      </c>
+      <c r="K28" s="2">
+        <v>1</v>
+      </c>
+      <c r="L28" s="2">
+        <v>1</v>
+      </c>
+      <c r="M28" s="2">
+        <v>1</v>
+      </c>
+      <c r="N28" s="5">
+        <v>1</v>
+      </c>
+      <c r="O28" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>49</v>
@@ -3505,9 +3563,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="2">
-        <v>1</v>
-      </c>
+      <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2">
@@ -3516,39 +3572,54 @@
       <c r="M29" s="2">
         <v>1</v>
       </c>
-      <c r="N29" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2">
-        <v>1</v>
-      </c>
-      <c r="M30" s="2">
-        <v>1</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3">
+        <v>1</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3">
+        <v>1</v>
+      </c>
+      <c r="H30" s="3">
+        <v>1</v>
+      </c>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3">
+        <v>1</v>
+      </c>
+      <c r="K30" s="3">
+        <v>1</v>
+      </c>
+      <c r="L30" s="3">
+        <v>1</v>
+      </c>
+      <c r="M30" s="3">
+        <v>1</v>
+      </c>
+      <c r="N30" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>106</v>
       </c>
@@ -3572,33 +3643,34 @@
       <c r="M31" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="2"/>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
       <c r="E32" s="2">
         <v>1</v>
       </c>
       <c r="F32" s="2">
         <v>1</v>
       </c>
-      <c r="G32" s="2">
-        <v>1</v>
-      </c>
+      <c r="G32" s="2"/>
       <c r="H32" s="2">
         <v>1</v>
       </c>
-      <c r="I32" s="2">
-        <v>1</v>
-      </c>
+      <c r="I32" s="2"/>
       <c r="J32" s="2">
         <v>1</v>
       </c>
@@ -3610,45 +3682,33 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="2">
-        <v>1</v>
-      </c>
-      <c r="E33" s="2">
-        <v>1</v>
-      </c>
-      <c r="F33" s="2">
-        <v>1</v>
-      </c>
-      <c r="G33" s="2">
-        <v>1</v>
-      </c>
-      <c r="H33" s="2">
-        <v>1</v>
-      </c>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2">
-        <v>1</v>
-      </c>
-      <c r="K33" s="2">
-        <v>1</v>
-      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2">
+        <v>1</v>
+      </c>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>70</v>
+      <c r="A34" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>49</v>
@@ -3656,63 +3716,55 @@
       <c r="D34" s="2">
         <v>1</v>
       </c>
-      <c r="E34" s="2">
-        <v>1</v>
-      </c>
-      <c r="F34" s="2">
-        <v>1</v>
-      </c>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2">
-        <v>1</v>
-      </c>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2">
-        <v>1</v>
-      </c>
-      <c r="K34" s="2">
-        <v>1</v>
-      </c>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2">
+        <v>1</v>
+      </c>
+      <c r="F35" s="2">
+        <v>1</v>
+      </c>
+      <c r="G35" s="2">
+        <v>1</v>
+      </c>
+      <c r="H35" s="2">
+        <v>1</v>
+      </c>
+      <c r="I35" s="2">
+        <v>1</v>
+      </c>
+      <c r="J35" s="2">
+        <v>1</v>
+      </c>
+      <c r="K35" s="2">
+        <v>1</v>
+      </c>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D35" s="2">
-        <v>1</v>
-      </c>
-      <c r="E35" s="3">
-        <v>1</v>
-      </c>
-      <c r="F35" s="3">
-        <v>1</v>
-      </c>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3">
-        <v>1</v>
-      </c>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3">
-        <v>1</v>
-      </c>
-      <c r="K35" s="3">
-        <v>1</v>
-      </c>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="B36" s="2" t="s">
         <v>48</v>
       </c>
@@ -3722,36 +3774,32 @@
       <c r="D36" s="2">
         <v>1</v>
       </c>
-      <c r="E36" s="2">
-        <v>1</v>
-      </c>
-      <c r="F36" s="2">
-        <v>1</v>
-      </c>
-      <c r="G36" s="2">
-        <v>1</v>
-      </c>
-      <c r="H36" s="2">
-        <v>1</v>
-      </c>
-      <c r="I36" s="2">
-        <v>1</v>
-      </c>
-      <c r="J36" s="2">
-        <v>1</v>
-      </c>
-      <c r="K36" s="2">
-        <v>1</v>
-      </c>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
+      <c r="E36" s="3">
+        <v>1</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1</v>
+      </c>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3">
+        <v>1</v>
+      </c>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3">
+        <v>1</v>
+      </c>
+      <c r="K36" s="3">
+        <v>1</v>
+      </c>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>49</v>
@@ -3771,9 +3819,7 @@
       <c r="H37" s="2">
         <v>1</v>
       </c>
-      <c r="I37" s="2">
-        <v>1</v>
-      </c>
+      <c r="I37" s="2"/>
       <c r="J37" s="2">
         <v>1</v>
       </c>
@@ -3785,33 +3831,47 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
+      <c r="D38" s="2">
+        <v>1</v>
+      </c>
+      <c r="E38" s="2">
+        <v>1</v>
+      </c>
+      <c r="F38" s="2">
+        <v>1</v>
+      </c>
+      <c r="G38" s="2">
+        <v>1</v>
+      </c>
+      <c r="H38" s="2">
+        <v>1</v>
+      </c>
       <c r="I38" s="2">
         <v>1</v>
       </c>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
+      <c r="J38" s="2">
+        <v>1</v>
+      </c>
+      <c r="K38" s="2">
+        <v>1</v>
+      </c>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>73</v>
+      <c r="A39" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>49</v>
@@ -3819,15 +3879,29 @@
       <c r="D39" s="2">
         <v>1</v>
       </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
+      <c r="E39" s="2">
+        <v>1</v>
+      </c>
+      <c r="F39" s="2">
+        <v>1</v>
+      </c>
+      <c r="G39" s="2">
+        <v>1</v>
+      </c>
+      <c r="H39" s="2">
+        <v>1</v>
+      </c>
+      <c r="I39" s="2">
+        <v>1</v>
+      </c>
+      <c r="J39" s="2">
+        <v>1</v>
+      </c>
+      <c r="K39" s="2">
+        <v>1</v>
+      </c>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
@@ -3897,29 +3971,35 @@
       <c r="M42" s="3"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="A43" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B43" s="2"/>
       <c r="C43" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3">
+        <v>1</v>
+      </c>
+      <c r="I43" s="3">
+        <v>1</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1</v>
+      </c>
+      <c r="K43" s="3">
+        <v>1</v>
+      </c>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>49</v>
@@ -3939,35 +4019,30 @@
       <c r="M44" s="2"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B45" s="7"/>
+      <c r="A45" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="C45" s="7" t="s">
         <v>49</v>
       </c>
       <c r="D45" s="5"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8">
-        <v>1</v>
-      </c>
-      <c r="I45" s="8">
-        <v>1</v>
-      </c>
-      <c r="J45" s="8">
-        <v>1</v>
-      </c>
-      <c r="K45" s="8">
-        <v>1</v>
-      </c>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
     </row>
   </sheetData>
-  <sortState ref="A2:M45">
+  <sortState ref="A2:N45">
     <sortCondition ref="C2:C45"/>
+    <sortCondition ref="A2:A45"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mpsi2_TP_2020_2021.xlsx
+++ b/mpsi2_TP_2020_2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="460" windowWidth="23080" windowHeight="14480" activeTab="1"/>
+    <workbookView xWindow="2520" yWindow="460" windowWidth="23080" windowHeight="14060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="S2" sheetId="2" r:id="rId1"/>
@@ -2434,10 +2434,10 @@
   <dimension ref="A1:O45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O18" sqref="O18"/>
+      <selection pane="bottomRight" activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2531,6 +2531,9 @@
       <c r="M2" s="2">
         <v>1</v>
       </c>
+      <c r="N2" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -2570,6 +2573,9 @@
       <c r="M3" s="2">
         <v>1</v>
       </c>
+      <c r="N3" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -2606,6 +2612,9 @@
         <v>1</v>
       </c>
       <c r="N4" s="7">
+        <v>1</v>
+      </c>
+      <c r="O4" s="7">
         <v>1</v>
       </c>
     </row>
@@ -2638,6 +2647,9 @@
       <c r="N5" s="8">
         <v>1</v>
       </c>
+      <c r="O5" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
@@ -2682,6 +2694,9 @@
       <c r="N6" s="5">
         <v>1</v>
       </c>
+      <c r="O6" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
@@ -2723,6 +2738,12 @@
       <c r="M7" s="2">
         <v>1</v>
       </c>
+      <c r="N7" s="5">
+        <v>1</v>
+      </c>
+      <c r="O7" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
@@ -2764,6 +2785,12 @@
       <c r="M8" s="3">
         <v>1</v>
       </c>
+      <c r="N8" s="5">
+        <v>1</v>
+      </c>
+      <c r="O8" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
@@ -2806,6 +2833,9 @@
         <v>1</v>
       </c>
       <c r="N9" s="8">
+        <v>1</v>
+      </c>
+      <c r="O9" s="8">
         <v>1</v>
       </c>
     </row>
@@ -2874,6 +2904,9 @@
       <c r="N11" s="10">
         <v>1</v>
       </c>
+      <c r="O11" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
@@ -2914,6 +2947,9 @@
         <v>1</v>
       </c>
       <c r="N12" s="10"/>
+      <c r="O12" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
@@ -2942,6 +2978,9 @@
         <v>1</v>
       </c>
       <c r="N13" s="8">
+        <v>1</v>
+      </c>
+      <c r="O13" s="8">
         <v>1</v>
       </c>
     </row>
@@ -2970,6 +3009,9 @@
       <c r="N14">
         <v>1</v>
       </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
@@ -2998,6 +3040,9 @@
       <c r="N15">
         <v>1</v>
       </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
@@ -3038,6 +3083,9 @@
         <v>1</v>
       </c>
       <c r="N16" s="9">
+        <v>1</v>
+      </c>
+      <c r="O16" s="9">
         <v>1</v>
       </c>
     </row>
@@ -3340,6 +3388,9 @@
       <c r="N23" s="7">
         <v>1</v>
       </c>
+      <c r="O23" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
@@ -3422,6 +3473,9 @@
         <v>1</v>
       </c>
       <c r="M25" s="3">
+        <v>1</v>
+      </c>
+      <c r="N25" s="7">
         <v>1</v>
       </c>
     </row>
@@ -3616,6 +3670,9 @@
         <v>1</v>
       </c>
       <c r="N30" s="9">
+        <v>1</v>
+      </c>
+      <c r="O30" s="5">
         <v>1</v>
       </c>
     </row>
